--- a/outputs/CAROLINA5.xlsx
+++ b/outputs/CAROLINA5.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: Motivations
-Why: Abi is planning which sessions to attend tomorrow, so considering which sessions to go to is directly aligned with her goal of making the most of her time at the conference. This subgoal is essential for Abi to achieve her overall use case of planning her schedule.</t>
+Why: Abi is motivated to use technology to accomplish her tasks, and planning which sessions to attend is a crucial step toward achieving her overall goal of making the most out of her time at the ICSE 2019 conference. This subgoal aligns with her need to gather information comprehensively to form a complete understanding of the sessions available.</t>
         </is>
       </c>
     </row>
@@ -434,17 +434,17 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: Abi prefers a comprehensive approach and is motivated by clear, familiar steps. The "Program" menu item is labeled clearly, indicating that it will provide information about the sessions, which aligns with Abi’s methodical and process-oriented learning style. This makes it likely that Abi will understand that clicking on the "Program" menu item is the next step in finding session information.</t>
+Facets: Information Processing Style, Motivations
+Why: The "Program" menu item is clearly labeled and prominently displayed in the navigation bar. Abi, who prefers to gather information comprehensively, will likely recognize that clicking on the "Program" menu item is a logical step to find detailed information about the sessions. This aligns with her motivation to use technology to accomplish her tasks effectively.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: Information Processing Style, Computer Self-Efficacy, Attitude Towards Risk
-Why: After clicking on the "Program" menu item, Abi is presented with a drop-down menu containing numerous options without clear guidance on which one will provide the specific session information she needs. This can be overwhelming and confusing, particularly given Abi's preference for comprehensive information and low confidence when faced with unfamiliar computing tasks. Abi might not know which option to choose next, making it unclear if she is making the right progress toward her goal.</t>
+          <t>Answer: YES
+Facets: Information Processing Style, Motivations
+Why: After clicking on the "Program" menu item, Abi will see a dropdown menu with various options related to the program, such as "Complete Program," "Your Program," "Week Overview," and more. This provides a clear indication that she is on the right track to finding detailed information about the sessions. The comprehensive list of options aligns with her information processing style, allowing her to gather all the necessary information to plan her sessions effectively.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The "Complete Program" option is labeled clearly, indicating that it will provide a comprehensive overview of all sessions, which aligns with Abi’s methodical and process-oriented learning style. Given Abi's preference for comprehensive information, she will likely understand that clicking on "Complete Program" is the correct next step to gather the information she needs about the sessions.</t>
+Facets: Information Processing Style, Motivations
+Why: The "Complete Program" option is clearly labeled in the dropdown menu under the "Program" menu item. Abi, who prefers to gather comprehensive information, will likely recognize that clicking on "Complete Program" will provide her with a detailed overview of all the sessions. This aligns with her motivation to use technology to accomplish her tasks effectively and her information processing style of gathering all necessary information.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: After clicking on "Complete Program," Abi is presented with a detailed timeline of sessions, which aligns with her preference for comprehensive information. The layout provides clear and organized information about the sessions, their times, and locations, enabling her to understand that she has made progress toward her goal of planning which sessions to attend. The detailed structure supports Abi's process-oriented learning style, making it easier for her to gather all the information she needs.</t>
+Facets: Information Processing Style, Motivations
+Why: After clicking on "Complete Program," Abi is taken to a page that provides a detailed timeline of the sessions for the day. This page includes comprehensive information about the sessions, including times, titles, and speakers, which aligns with Abi's need for detailed information to make informed decisions. The clear layout and detailed schedule will help Abi know that she is making progress toward her goal of planning which sessions to attend.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The option "Session Timeline" is clearly labeled and suggests that it will provide a chronological view of the sessions. This aligns with Abi's comprehensive information processing style and preference for organized, detailed data. Abi will likely understand that clicking on "Session Timeline" will help her view the sessions in a structured manner, aiding her in selecting which ones to attend.</t>
+Facets: Information Processing Style, Motivations
+Why: The "Session Timeline" tab is clearly labeled and located next to the "Detailed Table" tab. Abi, who prefers to gather comprehensive information, will likely recognize that clicking on the "Session Timeline" tab will provide her with a different view of the session schedule. This aligns with her motivation to use technology to accomplish her tasks effectively and her information processing style of gathering all necessary information.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Information Processing Style, Computer Self-Efficacy, Attitude Towards Risk
-Why: Although the session timeline provides a comprehensive view, it is densely packed with information and visually overwhelming. Abi, who has low confidence in unfamiliar computing tasks and prefers methodical and clear information, might find it difficult to process the information efficiently. The sheer volume and complexity of the data could hinder her ability to easily determine what sessions to attend, making it unclear if she is making progress toward her goal. This could deter Abi from feeling confident that she has done the right thing.</t>
+Facets: Information Processing Style, Computer Self-Efficacy
+Why: The session timeline page presents a very dense and visually overwhelming schedule. While it does provide a comprehensive view of the sessions, the sheer amount of information and the compact layout may make it difficult for Abi to process the information effectively. Given Abi's low confidence in doing unfamiliar computing tasks and her preference for comprehensive but manageable information, she might feel overwhelmed and uncertain about whether she is making progress toward her goal. The layout does not facilitate easy navigation or understanding, which could hinder her ability to get all the information she needs.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Attitude Towards Risk
-Why: The timeline is densely packed and visually complex, which might be overwhelming for Abi. With low computer self-efficacy and a risk-averse attitude towards unfamiliar tasks, Abi may not be confident in identifying the correct tutorial to click on. The interface does not provide clear, simple instructions or cues, making it challenging for Abi to know exactly what to do next. This could deter her from taking the action due to fear of making a mistake or not being able to navigate back easily.</t>
+Facets: Computer Self-Efficacy, Attitude Toward Risk
+Why: The session timeline page is very dense and visually overwhelming, which might make it difficult for Abi to confidently identify and click on the specific tutorial she is interested in. Given Abi's low confidence in doing unfamiliar computing tasks and her risk-averse nature, she might be hesitant to click on the tutorial without clear and easily accessible information. The compact layout and the amount of information presented could make her uncertain about what to do next.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: After clicking on the tutorial "R for Software Engineering Research," Abi is presented with a detailed page that includes the course description, prerequisites, and other relevant information. This aligns well with Abi's comprehensive information processing style and preference for detailed, organized information. The clear presentation and thorough details will help Abi understand that she has made the right progress towards her goal and has obtained all the information she needs about the session.</t>
+Facets: Information Processing Style, Motivations
+Why: After clicking on the tutorial "R for Software Engineering Research," Abi is taken to a page that provides detailed information about the tutorial, including the course description, prerequisites, and the instructor's information. This aligns with Abi's need for comprehensive information to make informed decisions. The clear layout and detailed content will help Abi know that she is making progress toward her goal of planning which sessions to attend and will provide her with all the necessary information she needs.</t>
         </is>
       </c>
     </row>

--- a/outputs/CAROLINA5.xlsx
+++ b/outputs/CAROLINA5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to plan her schedule for the next day to make the most of her time at the conference. This subgoal aligns with her need to gather comprehensive information to form a complete understanding of the sessions available, which fits her information processing style.</t>
+Why: Abi is motivated to plan her sessions for the next day, which aligns with her goal of attending the conference effectively. The page provides a comprehensive list of tracks and sessions, which supports her information processing style of gathering detailed information before making decisions.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Program" menu item is clearly labeled and directly relevant to Abi's subgoal of finding out which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, she will likely recognize that clicking on the "Program" menu item is a logical step to find the session information she needs.</t>
+Why: Abi is motivated to find out which sessions to attend, and the "Program" menu item is clearly labeled, indicating it will likely contain the schedule or session information she needs. This aligns with her comprehensive information processing style, as she would logically look for a program or schedule to plan her day.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on the "Program" menu item, Abi is presented with a dropdown menu containing multiple options. While this indicates progress, it may not be immediately clear which specific option will provide the detailed session information she needs. Given her comprehensive information processing style, she might feel uncertain about which link to click next. Additionally, her low computer self-efficacy might make her hesitant to explore multiple options without clear guidance, potentially causing her to feel unsure if she is making progress toward her goal.</t>
+Why: While Abi will know she is making progress by clicking the "Program" menu item, the resulting dropdown menu presents many options without clear guidance on which one will provide the specific session information she needs for the next day. This could overwhelm her due to her comprehensive information processing style and low computer self-efficacy, making it difficult for her to confidently choose the right option to get all the information she needs.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Complete Program" option in the dropdown menu is clearly labeled and directly relevant to Abi's subgoal of finding out which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, she will likely recognize that clicking on the "Complete Program" option is a logical step to find the detailed session information she needs.</t>
+Why: Abi is motivated to find out the sessions for the next day, and the "Complete Program" option in the dropdown menu is clearly labeled, indicating it will likely contain the full schedule of sessions. This aligns with her comprehensive information processing style, as she would logically look for a complete program to gather all the necessary information.</t>
         </is>
       </c>
     </row>
@@ -462,43 +462,43 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the "Complete Program" option, Abi is taken to a detailed schedule of the conference sessions. This page provides a comprehensive list of sessions, including times, titles, and speakers, which aligns with her need for detailed information to plan her day. The clear and organized presentation of the schedule will help Abi feel confident that she is making progress toward her goal of deciding which sessions to attend.</t>
+Why: After clicking on "Complete Program," Abi will land on a page that provides a detailed schedule of sessions, which directly aligns with her goal of planning which sessions to attend. The page is organized by time and session, making it easy for her to see all the information she needs to make an informed decision about her schedule for the next day. This supports her comprehensive information processing style and confirms that she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The "Session Timeline" tab is not clearly explained on the page, and Abi might not be confident about what it will show or how it will help her achieve her subgoal. Given her low computer self-efficacy and preference for process-oriented learning, she might hesitate to click on it without more information about what it does. This lack of clarity could prevent her from knowing what to do at this step.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While Abi will know she is making progress by clicking on the "Session Timeline," the resulting page is very dense with information and visually overwhelming. Given her comprehensive information processing style, she might find it difficult to extract the specific information she needs about sessions for the next day. Additionally, her low computer self-efficacy might make her feel uncertain about navigating such a complex page, leading to potential confusion and difficulty in achieving her subgoal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page is visually overwhelming and dense with information, which might make it difficult for Abi to confidently identify and click on the specific tutorial session she is interested in. Given her low computer self-efficacy, she might feel uncertain about navigating such a complex page. Additionally, her preference for process-oriented learning means she would benefit from clearer instructions or guidance, which this page does not provide. This could lead to hesitation or confusion about what to do at this step.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Session Timeline" tab is clearly labeled and directly relevant to Abi's subgoal of finding out which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, she will likely recognize that clicking on the "Session Timeline" tab is a logical step to view the sessions in a timeline format, which can help her better understand the schedule and make informed decisions.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The session timeline page presents a very dense and visually overwhelming schedule. While it does provide a lot of information, the sheer volume and complexity might make it difficult for Abi to quickly ascertain if she is making progress toward her goal. Given her comprehensive information processing style, she might find it challenging to parse through all the details efficiently. Additionally, her low computer self-efficacy might make her feel overwhelmed and unsure if she is on the right track, potentially causing her to doubt her progress.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The session timeline is very dense and visually overwhelming, making it difficult for Abi to quickly locate the specific tutorial she is interested in. Given her comprehensive information processing style, she might find it challenging to parse through all the details efficiently. Additionally, her low computer self-efficacy might make her hesitant to click on a session without being certain it is the correct one, potentially causing her to feel unsure about what to do at this step.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the tutorial "R for Software Engineering Research," Abi is taken to a page that provides detailed information about the tutorial, including the course description, prerequisites, and instructor details. This aligns with her motivation to plan her schedule and her comprehensive information processing style, as she can now gather all the necessary information to decide if this session is relevant to her interests and needs. The clear and organized presentation of the tutorial details will help Abi feel confident that she is making progress toward her goal.</t>
+Why: After clicking on the tutorial "R for Software Engineering Research," Abi will land on a page that provides detailed information about the tutorial, including the course description, prerequisites, and schedule. This aligns with her motivation to find out about the sessions and her comprehensive information processing style, as the page offers all the necessary details she needs to make an informed decision about attending the tutorial. She will know she is making progress toward her goal and has the information she needs.</t>
         </is>
       </c>
     </row>

--- a/outputs/CAROLINA5.xlsx
+++ b/outputs/CAROLINA5.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to plan her sessions for the next day, which aligns with her goal of attending the conference effectively. The page provides a comprehensive list of tracks and sessions, which supports her information processing style of gathering detailed information before making decisions.</t>
+Facets: 1. Motivations
+Why: Abi is at the conference and planning which sessions to attend the next day. This aligns with her motivation to make the most of her time at the event by attending relevant sessions.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to find out which sessions to attend, and the "Program" menu item is clearly labeled, indicating it will likely contain the schedule or session information she needs. This aligns with her comprehensive information processing style, as she would logically look for a program or schedule to plan her day.</t>
+Why: The "Program" menu item is clearly labeled and directly related to finding session information, which aligns with Abi's motivation to plan her schedule. Her comprehensive information processing style would lead her to explore this option to gather necessary details.</t>
         </is>
       </c>
     </row>
@@ -444,52 +444,52 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While Abi will know she is making progress by clicking the "Program" menu item, the resulting dropdown menu presents many options without clear guidance on which one will provide the specific session information she needs for the next day. This could overwhelm her due to her comprehensive information processing style and low computer self-efficacy, making it difficult for her to confidently choose the right option to get all the information she needs.</t>
+Why: Although Abi lands on a page with session information, the overwhelming amount of data and lack of clear organization may make it difficult for her to process and find specific sessions for the next day. This could hinder her confidence and ability to determine if she's making progress toward her goal.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page is cluttered with information, and without clear guidance or labeling, Abi might struggle to identify the "complete program" link. Her low confidence in unfamiliar tasks and preference for structured guidance make it unlikely she'll know what to do at this step.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to find out the sessions for the next day, and the "Complete Program" option in the dropdown menu is clearly labeled, indicating it will likely contain the full schedule of sessions. This aligns with her comprehensive information processing style, as she would logically look for a complete program to gather all the necessary information.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+Why: The page provides a detailed timeline of sessions, which is exactly what Abi needs to plan her day. The clear organization and labeling of sessions help her understand that she is making progress toward her goal of selecting sessions to attend.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Complete Program," Abi will land on a page that provides a detailed schedule of sessions, which directly aligns with her goal of planning which sessions to attend. The page is organized by time and session, making it easy for her to see all the information she needs to make an informed decision about her schedule for the next day. This supports her comprehensive information processing style and confirms that she is making progress toward her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+Why: The "Session Timeline" option is clearly labeled and directly related to viewing sessions in a chronological order, which aligns with Abi's goal of planning her schedule. Her motivation to organize her day and the clear labeling help her know what to do at this step.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The timeline view presents a lot of information in a dense format, which may be overwhelming for Abi. The complexity and volume of data could make it difficult for her to determine if she's making progress toward her goal, as she might struggle to extract the specific information she needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The "Session Timeline" tab is not clearly explained on the page, and Abi might not be confident about what it will show or how it will help her achieve her subgoal. Given her low computer self-efficacy and preference for process-oriented learning, she might hesitate to click on it without more information about what it does. This lack of clarity could prevent her from knowing what to do at this step.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While Abi will know she is making progress by clicking on the "Session Timeline," the resulting page is very dense with information and visually overwhelming. Given her comprehensive information processing style, she might find it difficult to extract the specific information she needs about sessions for the next day. Additionally, her low computer self-efficacy might make her feel uncertain about navigating such a complex page, leading to potential confusion and difficulty in achieving her subgoal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is visually overwhelming and dense with information, which might make it difficult for Abi to confidently identify and click on the specific tutorial session she is interested in. Given her low computer self-efficacy, she might feel uncertain about navigating such a complex page. Additionally, her preference for process-oriented learning means she would benefit from clearer instructions or guidance, which this page does not provide. This could lead to hesitation or confusion about what to do at this step.</t>
+Why: The timeline is dense and may not clearly indicate that clicking on a specific tutorial will provide more information. Abi might not feel confident in navigating this complex interface without explicit guidance, making it unclear what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the tutorial "R for Software Engineering Research," Abi will land on a page that provides detailed information about the tutorial, including the course description, prerequisites, and schedule. This aligns with her motivation to find out about the sessions and her comprehensive information processing style, as the page offers all the necessary details she needs to make an informed decision about attending the tutorial. She will know she is making progress toward her goal and has the information she needs.</t>
+Why: The page provides detailed information about the tutorial, including the course description and prerequisites. This aligns with Abi's motivation to gather comprehensive information to plan her sessions, helping her know she is making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/CAROLINA5.xlsx
+++ b/outputs/CAROLINA5.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations
-Why: Abi is at the conference and planning which sessions to attend the next day. This aligns with her motivation to make the most of her time at the event by attending relevant sessions.</t>
+Why: Abi is at the conference and planning her schedule for the next day. Determining which sessions to attend is a logical and necessary step toward achieving her goal of making the most of her time at the conference. This aligns with her motivation to accomplish her tasks effectively.</t>
         </is>
       </c>
     </row>
@@ -435,70 +435,70 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Program" menu item is clearly labeled and directly related to finding session information, which aligns with Abi's motivation to plan her schedule. Her comprehensive information processing style would lead her to explore this option to gather necessary details.</t>
+Why: The "Program" menu item is clearly labeled and directly relevant to Abi's goal of finding out which sessions to attend. This aligns with her motivation to plan her schedule and her comprehensive information processing style, as she would logically look for a program or schedule to gather the necessary information.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Program" menu, Abi sees a dropdown with options like "Complete Program," "Your Program," and specific dates. This provides clear pathways to find detailed session information, confirming she is making progress toward her goal of planning which sessions to attend. The options are directly relevant and align with her motivation and comprehensive information processing style.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Complete Program" option is clearly labeled and suggests it will provide a full overview of the conference schedule. This aligns with Abi's motivation to plan her sessions and her comprehensive information processing style, as she would likely seek out a complete list to make informed decisions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Although Abi lands on a page with session information, the overwhelming amount of data and lack of clear organization may make it difficult for her to process and find specific sessions for the next day. This could hinder her confidence and ability to determine if she's making progress toward her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+Why: The page provides a comprehensive list of sessions, but the sheer volume of information may be overwhelming for Abi. Her comprehensive information processing style might struggle with the lack of clear organization or filtering options, and her low computer self-efficacy could make it difficult for her to efficiently find the specific sessions she is interested in for the next day.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is cluttered with information, and without clear guidance or labeling, Abi might struggle to identify the "complete program" link. Her low confidence in unfamiliar tasks and preference for structured guidance make it unlikely she'll know what to do at this step.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+Why: The page is dense with information, and there is no clear indication or label for a "session timeline" to click on. Abi's low computer self-efficacy and preference for process-oriented learning mean she might struggle to identify the correct action without explicit guidance or a clear label.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a detailed timeline of sessions, which is exactly what Abi needs to plan her day. The clear organization and labeling of sessions help her understand that she is making progress toward her goal of selecting sessions to attend.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+Why: The session timeline provides a clear, visual representation of the schedule, making it easier for Abi to see the sessions available each day. This aligns with her motivation to plan effectively and supports her comprehensive information processing style by organizing the information in a digestible format.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The timeline is visually dense, and without clear instructions or labels indicating that clicking on a session will provide more details, Abi might hesitate. Her low computer self-efficacy and preference for explicit guidance mean she may not be confident in knowing that clicking will yield the desired information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Session Timeline" option is clearly labeled and directly related to viewing sessions in a chronological order, which aligns with Abi's goal of planning her schedule. Her motivation to organize her day and the clear labeling help her know what to do at this step.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The timeline view presents a lot of information in a dense format, which may be overwhelming for Abi. The complexity and volume of data could make it difficult for her to determine if she's making progress toward her goal, as she might struggle to extract the specific information she needs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The timeline is dense and may not clearly indicate that clicking on a specific tutorial will provide more information. Abi might not feel confident in navigating this complex interface without explicit guidance, making it unclear what to do at this step.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides detailed information about the tutorial, including the course description and prerequisites. This aligns with Abi's motivation to gather comprehensive information to plan her sessions, helping her know she is making progress toward her goal.</t>
+Why: The page provides detailed information about the "R for Software Engineering Research" tutorial, including the course description and prerequisites. This aligns with Abi's motivation to plan her sessions and supports her comprehensive information processing style by offering all the necessary details to make an informed decision.</t>
         </is>
       </c>
     </row>

--- a/outputs/CAROLINA5.xlsx
+++ b/outputs/CAROLINA5.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations
-Why: Abi is at the conference and planning her schedule for the next day. Determining which sessions to attend is a logical and necessary step toward achieving her goal of making the most of her time at the conference. This aligns with her motivation to accomplish her tasks effectively.</t>
+Why: Abi is at the conference and planning which sessions to attend the next day. Determining which sessions to go to is a logical step toward achieving her goal of planning her schedule for the conference.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Program" menu item is clearly labeled and directly relevant to Abi's goal of finding out which sessions to attend. This aligns with her motivation to plan her schedule and her comprehensive information processing style, as she would logically look for a program or schedule to gather the necessary information.</t>
+Why: The "Program" menu item is clearly labeled and directly related to finding session information, which aligns with Abi's goal of planning her schedule. This makes it likely that she will know to click it to find the sessions for the next day.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the "Program" menu, Abi sees a dropdown with options like "Complete Program," "Your Program," and specific dates. This provides clear pathways to find detailed session information, confirming she is making progress toward her goal of planning which sessions to attend. The options are directly relevant and align with her motivation and comprehensive information processing style.</t>
+Why: After clicking the "Program" menu, Abi sees a dropdown with options like "Complete Program," "Your Program," and specific dates. This provides clear paths to find detailed session information, confirming she is making progress toward her goal of planning which sessions to attend.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Complete Program" option is clearly labeled and suggests it will provide a full overview of the conference schedule. This aligns with Abi's motivation to plan her sessions and her comprehensive information processing style, as she would likely seek out a complete list to make informed decisions.</t>
+Why: The "Complete Program" option is clearly labeled and suggests it will provide comprehensive session information. This aligns with Abi's goal of finding out which sessions to attend, making it likely she will know to click it.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page provides a comprehensive list of sessions, but the sheer volume of information may be overwhelming for Abi. Her comprehensive information processing style might struggle with the lack of clear organization or filtering options, and her low computer self-efficacy could make it difficult for her to efficiently find the specific sessions she is interested in for the next day.</t>
+Why: The page contains a large amount of information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult to quickly find the specific sessions for the next day. Additionally, the sheer volume of data could affect her confidence in navigating the page effectively.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is dense with information, and there is no clear indication or label for a "session timeline" to click on. Abi's low computer self-efficacy and preference for process-oriented learning mean she might struggle to identify the correct action without explicit guidance or a clear label.</t>
+Why: The page is dense with information, and there is no clear indication or label for a "session timeline" to click on. Abi might struggle to identify what to do next due to the lack of explicit guidance and her low confidence in unfamiliar computing tasks.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The session timeline provides a clear, visual representation of the schedule, making it easier for Abi to see the sessions available each day. This aligns with her motivation to plan effectively and supports her comprehensive information processing style by organizing the information in a digestible format.</t>
+Why: The session timeline provides a clear visual representation of the schedule, making it easier for Abi to see the sessions available on each day. This aligns with her goal of planning which sessions to attend, confirming she is making progress and has the information she needs.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The timeline is visually dense, and without clear instructions or labels indicating that clicking on a session will provide more details, Abi might hesitate. Her low computer self-efficacy and preference for explicit guidance mean she may not be confident in knowing that clicking will yield the desired information.</t>
+Why: The timeline is visually complex, and without explicit instructions or labels indicating that clicking on a tutorial will provide more information, Abi might not feel confident in knowing what to do next. Her low computer self-efficacy and preference for clear guidance could hinder her from taking this action.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides detailed information about the "R for Software Engineering Research" tutorial, including the course description and prerequisites. This aligns with Abi's motivation to plan her sessions and supports her comprehensive information processing style by offering all the necessary details to make an informed decision.</t>
+Why: The page provides detailed information about the "R for Software Engineering Research" tutorial, including the time, location, and course description. This aligns with Abi's goal of planning her sessions, confirming she is making progress and has the information she needs.</t>
         </is>
       </c>
     </row>
